--- a/测试/02DPC_3C基本功能验证报告.xlsx
+++ b/测试/02DPC_3C基本功能验证报告.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\doc-dotnet\blog\测试\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="V5.14" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">V5.14!$A$1:$F$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">V5.14!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>模块</t>
   </si>
@@ -50,14 +55,6 @@
   </si>
   <si>
     <t>文件收集池中放入完整的报警文件组</t>
-  </si>
-  <si>
-    <t>1.写入alarm_fileinfo
-2.json消息写入kafka对应的topic
-3.上传fastdfs</t>
-  </si>
-  <si>
-    <t>徐勇</t>
   </si>
   <si>
     <t>先后3批次被收集的报警文件</t>
@@ -66,11 +63,6 @@
     <t>1.放入最小集合的文件scs+dlv
 2.放入mv2
 3.放入mv3</t>
-  </si>
-  <si>
-    <t>1.监听到scs+dlv超时后，收集入库发topic消息
-2. mv2后来后将原始文件append至json数组中
-3.mv3同上</t>
   </si>
   <si>
     <t>log文件解析</t>
@@ -308,18 +300,23 @@
   <si>
     <t>云转发服务</t>
   </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>徐勇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>田喜霞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,12 +329,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -345,354 +344,32 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFD4D4D4"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -715,251 +392,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -993,61 +428,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1305,34 +696,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.1296296296296" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="43.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.6296296296296" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.37962962962963" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.3796296296296" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.1296296296296" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="26" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="26.25" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1368,59 +758,55 @@
       <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="D2" s="8"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="9">
-        <v>43831</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="7"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" s="10"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="24.75" customHeight="1" spans="1:8">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -1429,65 +815,92 @@
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="27" customHeight="1" spans="1:8">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="57" customHeight="1" spans="1:8">
-      <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1498,11 +911,15 @@
         <v>26</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="57" customHeight="1" spans="2:8">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1512,12 +929,18 @@
       <c r="D10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="52" customHeight="1" spans="2:8">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
@@ -1527,64 +950,94 @@
       <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="2:8">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="2:8">
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="2:8">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="41" customHeight="1" spans="2:8">
+    <row r="16" spans="1:8" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
@@ -1594,12 +1047,18 @@
       <c r="D16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="42" customHeight="1" spans="2:8">
+    <row r="17" spans="1:8" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>44</v>
       </c>
@@ -1609,12 +1068,18 @@
       <c r="D17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="40" customHeight="1" spans="2:8">
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>47</v>
       </c>
@@ -1624,12 +1089,18 @@
       <c r="D18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="54" customHeight="1" spans="2:8">
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>50</v>
       </c>
@@ -1639,12 +1110,18 @@
       <c r="D19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="58" customHeight="1" spans="2:8">
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="89.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>53</v>
       </c>
@@ -1654,12 +1131,18 @@
       <c r="D20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="89" customHeight="1" spans="2:8">
+    <row r="21" spans="1:8" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>56</v>
       </c>
@@ -1669,12 +1152,18 @@
       <c r="D21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="63" customHeight="1" spans="2:8">
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>59</v>
       </c>
@@ -1684,31 +1173,37 @@
       <c r="D22" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="9">
+        <v>43878</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="52" customHeight="1" spans="2:8">
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1717,12 +1212,12 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A25" s="7" t="s">
-        <v>67</v>
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1731,12 +1226,12 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:8">
+    <row r="26" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1745,12 +1240,12 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:8">
+    <row r="27" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1759,12 +1254,12 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:8">
+    <row r="28" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1773,12 +1268,12 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:8">
+    <row r="29" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1787,12 +1282,12 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:8">
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1801,12 +1296,12 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:8">
+    <row r="31" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1815,12 +1310,12 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:8">
+    <row r="32" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1829,12 +1324,12 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:8">
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1843,61 +1338,45 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" s="3" customFormat="1" customHeight="1" spans="1:1">
+    <row r="34" spans="1:8" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
     </row>
-    <row r="36" s="3" customFormat="1" customHeight="1" spans="1:1">
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
     </row>
-    <row r="37" s="3" customFormat="1" customHeight="1" spans="1:1">
+    <row r="37" spans="1:8" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
     </row>
-    <row r="38" s="3" customFormat="1" customHeight="1" spans="1:1">
+    <row r="38" spans="1:8" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" s="3" customFormat="1" customHeight="1" spans="1:1">
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" s="3" customFormat="1" customHeight="1" spans="1:1">
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" s="3" customFormat="1" customHeight="1" spans="1:1">
+    <row r="41" spans="1:8" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" s="3" customFormat="1" customHeight="1" spans="1:1">
+    <row r="42" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" customHeight="1" spans="1:1">
+    <row r="43" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" customHeight="1" spans="1:1">
-      <c r="A44" s="11"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F34">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F33"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23 E2:E21 E24:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>